--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.43</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003799</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新泰利灵活配置混合A</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003800</t>
+          <t>519909</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新泰利灵活配置混合C</t>
+          <t>华安安顺灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.87</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005696</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519909</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安安顺灵活配置混合</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.62</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -734,25 +824,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001282</t>
+          <t>003799</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安新机遇灵活配置混合</t>
+          <t>华安新泰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>23.84</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.25</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>002181</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>华安大安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.84</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -828,15 +948,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.84</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.47</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>80.58</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>001282</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>华安新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>003800</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>华安新泰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3559</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.58</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9399999999999999</v>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.06</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9399999999999999</v>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9399999999999999</v>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2383,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.71</v>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.06</v>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2554,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2505,14 +2592,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9399999999999999</v>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2521,14 +2630,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9399999999999999</v>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2537,13 +2668,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.06</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +569,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0.9399999999999999</v>
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -600,6 +617,440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2247,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2759,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
+++ b/数据整理/stocks/A股/创业板/300733-西菱动力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.06</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,11 +586,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>0.9399999999999999</v>
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -616,7 +633,725 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1050,7 +1785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1372,7 +2107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +2353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,7 +2675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2300,7 +3035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2698,7 +3433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3208,136 +3943,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0856</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>